--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,136 +58,136 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>join</t>
   </si>
   <si>
     <t>hand</t>
@@ -772,10 +772,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -904,7 +904,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>0.9722222222222222</v>
@@ -954,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>0.967741935483871</v>
@@ -1004,7 +1004,7 @@
         <v>104</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>0.9655172413793104</v>
@@ -1054,7 +1054,7 @@
         <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>0.9615384615384616</v>
@@ -1104,7 +1104,7 @@
         <v>455</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>0.9555555555555556</v>
@@ -1129,32 +1129,8 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1029411764705882</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>218</v>
-      </c>
-      <c r="E9">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>122</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>0.9444444444444444</v>
@@ -1180,7 +1156,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>0.9444444444444444</v>
@@ -1206,7 +1182,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <v>0.9333333333333333</v>
@@ -1232,7 +1208,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>0.9333333333333333</v>
@@ -1258,7 +1234,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>0.9145299145299145</v>
@@ -1284,7 +1260,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>0.9090909090909091</v>
@@ -1310,7 +1286,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>0.8976377952755905</v>
@@ -1336,7 +1312,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>0.8936170212765957</v>
@@ -1362,7 +1338,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
         <v>0.8846153846153846</v>
@@ -1388,7 +1364,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
         <v>0.8807339449541285</v>
@@ -1414,7 +1390,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
         <v>0.8666666666666667</v>
@@ -1440,7 +1416,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
         <v>0.8666666666666667</v>
@@ -1466,7 +1442,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
         <v>0.8529411764705882</v>
@@ -1492,7 +1468,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
         <v>0.84</v>
@@ -1518,7 +1494,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
         <v>0.8375</v>
@@ -1544,7 +1520,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
         <v>0.8245614035087719</v>
@@ -1570,7 +1546,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>0.8205128205128205</v>
@@ -1596,7 +1572,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>0.8181818181818182</v>
@@ -1622,7 +1598,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>0.8125</v>
@@ -1648,7 +1624,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
         <v>0.8014184397163121</v>
@@ -1674,7 +1650,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>0.7936507936507936</v>
@@ -1700,7 +1676,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>0.7916666666666666</v>
@@ -1726,7 +1702,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>0.7857142857142857</v>
@@ -1752,7 +1728,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>0.7777777777777778</v>
@@ -1778,7 +1754,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>0.7575757575757576</v>
@@ -1804,59 +1780,59 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.748898678414097</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L34">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="M34">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.7333333333333333</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L35">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
         <v>0.7222222222222222</v>
@@ -1882,33 +1858,33 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.7222222222222222</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="N37">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
         <v>0.7111111111111111</v>
@@ -1934,7 +1910,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
         <v>0.6521739130434783</v>
@@ -1960,7 +1936,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
         <v>0.6515151515151515</v>
@@ -1986,7 +1962,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41">
         <v>0.6470588235294118</v>
@@ -2012,7 +1988,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42">
         <v>0.6461538461538462</v>
@@ -2038,28 +2014,28 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>0.6257668711656442</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L43">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="M43">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2067,25 +2043,25 @@
         <v>56</v>
       </c>
       <c r="K44">
-        <v>0.6153846153846154</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="L44">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2093,25 +2069,25 @@
         <v>57</v>
       </c>
       <c r="K45">
-        <v>0.6097560975609756</v>
+        <v>0.6</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="M45">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="10:17">
